--- a/Step to Push to GitHub.xlsx
+++ b/Step to Push to GitHub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnol\Desktop\Proyecto\ProyectoTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FDE8903-7A15-4855-ACB2-FB4CB7C3E5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5680B6-3439-40DC-953D-41F50231469A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Paso</t>
   </si>
@@ -90,13 +90,111 @@
   </si>
   <si>
     <t>Sube los archivos al repositorio remoto de GitHub</t>
+  </si>
+  <si>
+    <t>Crear un nuevo branch en Local Git</t>
+  </si>
+  <si>
+    <t>Crea un Branch nuevo, pero no se switchea al nuevo branch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git branch </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nombre-NuevoBranch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git checkout </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Nombre-NuevoBranch</t>
+    </r>
+  </si>
+  <si>
+    <t>Se cambia para el nuevo branch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git checkout -b  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Nombre-NuevoBranch</t>
+    </r>
+  </si>
+  <si>
+    <t>con el flag -b crea y switchea al nuevo branch</t>
+  </si>
+  <si>
+    <t>git fetch</t>
+  </si>
+  <si>
+    <t>Trae los últimos cambios de todas las ramas remotas</t>
+  </si>
+  <si>
+    <t>git checkout master</t>
+  </si>
+  <si>
+    <t>Cambia al branch master</t>
+  </si>
+  <si>
+    <t>git merge nuevo</t>
+  </si>
+  <si>
+    <t>Fusiona los cambios del branch nuevo con el master</t>
+  </si>
+  <si>
+    <t>git push origin master</t>
+  </si>
+  <si>
+    <t>Sube el branch master actualizado al repositorio remoto</t>
+  </si>
+  <si>
+    <t>git checkout nuevo</t>
+  </si>
+  <si>
+    <t>Cambia al branch nuevo</t>
+  </si>
+  <si>
+    <t>git rebase master</t>
+  </si>
+  <si>
+    <t>Mueve los commits del branch nuevo que no están en el master a la punta del master</t>
+  </si>
+  <si>
+    <t>git checkout master y git merge nuevo</t>
+  </si>
+  <si>
+    <t>Actualiza el branch master con los cambios del branch nuevo sin crear un nuevo commit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,8 +210,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,8 +243,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -150,11 +273,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,6 +313,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,20 +666,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.5625" customWidth="1"/>
-    <col min="2" max="2" width="74.375" customWidth="1"/>
-    <col min="3" max="3" width="54.25" customWidth="1"/>
+    <col min="1" max="1" width="9.5625" customWidth="1"/>
+    <col min="2" max="2" width="72.6875" customWidth="1"/>
+    <col min="3" max="3" width="73.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="23.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -537,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -548,7 +712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -559,7 +723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -570,7 +734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -581,7 +745,177 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6">
+        <v>3</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6">
+        <v>2</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6">
+        <v>3</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6">
+        <v>4</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6">
+        <v>5</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <ignoredErrors>
     <ignoredError sqref="A1:C6" numberStoredAsText="1"/>

--- a/Step to Push to GitHub.xlsx
+++ b/Step to Push to GitHub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnol\Desktop\Proyecto\ProyectoTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5680B6-3439-40DC-953D-41F50231469A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C246D55-9350-4984-826B-CE0C3328A041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,9 +314,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -326,6 +323,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,168 +746,168 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>1</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>1</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>2</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>3</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>4</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>5</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Step to Push to GitHub.xlsx
+++ b/Step to Push to GitHub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnol\Desktop\Proyecto\ProyectoTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C246D55-9350-4984-826B-CE0C3328A041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229D914A-75B8-4C3A-8A3F-6FD8009ECFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>Paso</t>
   </si>
@@ -188,6 +188,60 @@
   </si>
   <si>
     <t>Actualiza el branch master con los cambios del branch nuevo sin crear un nuevo commit</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/YOUR-USERNAME/YOUR-REPOSITORY.git</t>
+  </si>
+  <si>
+    <t>Clona el repositorio remoto en tu PC</t>
+  </si>
+  <si>
+    <t>cd YOUR-REPOSITORY</t>
+  </si>
+  <si>
+    <t>Cambia al directorio del repositorio clonado</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>Muestra el estado de los archivos en el repositorio local</t>
+  </si>
+  <si>
+    <t>Agrega todos los archivos modificados al área de preparación</t>
+  </si>
+  <si>
+    <t>git push origin BRANCH-NAME</t>
+  </si>
+  <si>
+    <t>Sube los cambios al repositorio remoto</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>Obtiene la ruta del repositorio original</t>
+  </si>
+  <si>
+    <t>mkdir proyecto-clonado</t>
+  </si>
+  <si>
+    <t>Crea un nuevo directorio llamado proyecto-clonado</t>
+  </si>
+  <si>
+    <t>cd proyecto-clonado</t>
+  </si>
+  <si>
+    <t>Cambia al nuevo directorio</t>
+  </si>
+  <si>
+    <t>git clone /home/user/proyecto-original</t>
+  </si>
+  <si>
+    <t>Clona el repositorio original en el nuevo directorio</t>
+  </si>
+  <si>
+    <t>Clonar un repositorio de GitHub hacia la PC</t>
   </si>
 </sst>
 </file>
@@ -305,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,6 +381,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -911,12 +972,174 @@
         <v>32</v>
       </c>
     </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5">
+        <v>3</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5">
+        <v>4</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5">
+        <v>5</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5">
+        <v>6</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5">
+        <v>2</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5">
+        <v>3</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5">
+        <v>4</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:C6" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/Step to Push to GitHub.xlsx
+++ b/Step to Push to GitHub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnol\Desktop\Proyecto\ProyectoTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229D914A-75B8-4C3A-8A3F-6FD8009ECFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3566A08-7BED-4DD5-BFD5-CE6DC4C0EAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>Paso</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Clonar un repositorio de GitHub hacia la PC</t>
+  </si>
+  <si>
+    <t>Clonar un repositorio a otro archivo dentro de la misma PC</t>
   </si>
 </sst>
 </file>
@@ -359,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -378,16 +381,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,7 +732,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -807,10 +809,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
@@ -857,10 +859,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
@@ -973,10 +975,10 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
@@ -1056,20 +1058,17 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="A35" s="8"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="8"/>
+      <c r="A36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
